--- a/Hello Daffodils/Daily Sales & Allocation/Daily Sales Nov'2020/Daily Sales 30.11.20.xlsx
+++ b/Hello Daffodils/Daily Sales & Allocation/Daily Sales Nov'2020/Daily Sales 30.11.20.xlsx
@@ -1444,10 +1444,10 @@
   <dimension ref="A1:AX65536"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="AO31" sqref="AO31"/>
+      <selection pane="bottomRight" activeCell="AC40" sqref="AC40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
